--- a/Investment_spreadsheet_josevitor.xlsx
+++ b/Investment_spreadsheet_josevitor.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A7227FF-26EF-4163-9515-FBE774D19644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/903b4fb522463532/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{5A7227FF-26EF-4163-9515-FBE774D19644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4005AFCB-0503-4A05-904A-40FCD5C34577}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Invest" sheetId="1" r:id="rId1"/>
-    <sheet name="procv" sheetId="2" r:id="rId2"/>
+    <sheet name="procv" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="aporte">Invest!$C$9:$C$9</definedName>
@@ -33,9 +38,10 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>CONFIGURAÇÕES</t>
   </si>
@@ -170,6 +176,9 @@
   <si>
     <t>Agressivo</t>
   </si>
+  <si>
+    <t>Digite aqui o valor</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +199,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,13 +215,6 @@
       <sz val="20"/>
       <color rgb="FFD9D9D9"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,8 +271,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,79 +529,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -598,13 +586,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,31 +596,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,15 +629,55 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutro" xfId="1" builtinId="28"/>
@@ -696,13 +717,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -728,19 +755,25 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -756,15 +789,42 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -776,15 +836,42 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -796,15 +883,42 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -816,15 +930,42 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -836,15 +977,42 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -856,15 +1024,42 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -887,16 +1082,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -908,14 +1105,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -990,15 +1186,42 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1010,15 +1233,42 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1030,15 +1280,42 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1050,15 +1327,42 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1070,15 +1374,42 @@
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1090,15 +1421,42 @@
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1139,16 +1497,16 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1186,24 +1544,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.169933436682988E-2"/>
-          <c:y val="0.92222183338193842"/>
-          <c:w val="0.87032057409008845"/>
-          <c:h val="6.4470365273108773E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1214,9 +1559,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1224,7 +1568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1233,17 +1577,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1254,7 +1609,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1306,35 +1661,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1342,37 +1695,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1391,14 +1751,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1407,49 +1759,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1461,10 +1799,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1473,16 +1811,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1500,21 +1839,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1533,14 +1869,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1552,14 +1887,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1573,9 +1908,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1589,12 +1923,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1606,9 +1934,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1623,14 +1951,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1642,14 +1969,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1661,14 +1988,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1677,14 +2003,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1692,7 +2017,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1705,11 +2030,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1717,14 +2052,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1736,12 +2071,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1757,7 +2099,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1766,9 +2107,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1784,14 +2124,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1800,9 +2139,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1814,12 +2152,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1905,9 +2237,33 @@
           <a:off x="5676900" y="142875"/>
           <a:ext cx="5314950" cy="2667000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="152400" dist="12000" dir="900000" sy="98000" kx="110000" ky="200000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="perspectiveRelaxed">
+            <a:rot lat="19800000" lon="1200000" rev="20820000"/>
+          </a:camera>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d contourW="6350" prstMaterial="matte">
+          <a:bevelT w="101600" h="101600"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2235,426 +2591,727 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="9.09765625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="40.69921875" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" customWidth="1"/>
+    <col min="4" max="4" width="19.59765625" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="4.8984375" style="39" customWidth="1"/>
+    <col min="7" max="8" width="5.8984375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="21.69921875" style="39" customWidth="1"/>
+    <col min="10" max="13" width="9.09765625" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="9.09765625" style="39" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19"/>
-    <row r="2" spans="2:19" ht="24">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="1:19" customFormat="1" ht="13.8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:19" ht="22.8">
+      <c r="B2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-    </row>
-    <row r="3" spans="2:19" ht="15.75">
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13">
-        <v>3527</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="15.75">
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>8.8999999999999999E-3</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="15.75">
-      <c r="B5" s="12" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6" t="e">
         <f>C3*30%</f>
-        <v>1058.0999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:19">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" ht="26.25">
-      <c r="B8" s="49" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:19" ht="13.8">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="1:19" ht="13.8">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+    </row>
+    <row r="8" spans="1:19" ht="49.2">
+      <c r="B8" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="2:19" ht="15.75">
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6">
-        <v>120</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="2:19" ht="15.75">
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="2:19" ht="15.75">
-      <c r="B11" s="5" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="2:19" ht="15.75">
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6">
+      <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13" t="e">
         <f>FV(C11,C10*12,C9*-1)</f>
-        <v>1528.6063200667872</v>
-      </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="2:19" ht="15.75">
-      <c r="B13" s="17" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15" t="e">
         <f>C12*C4</f>
-        <v>13.604596248594406</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="2:19">
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="2:19" ht="45">
-      <c r="I15" s="53" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="14" spans="1:19" s="53" customFormat="1" ht="13.8">
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:19" s="53" customFormat="1" ht="41.4">
+      <c r="I15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="2:19" ht="21">
-      <c r="B16" s="51" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+    </row>
+    <row r="16" spans="1:19" ht="21">
+      <c r="B16" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75">
-      <c r="A17" s="2">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.6">
+      <c r="A17" s="57">
         <v>2</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="45" t="e">
         <f>FV($C$11,$A17*12,$C$9*-1)</f>
-        <v>3267.3152757174262</v>
-      </c>
-      <c r="D17" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17" s="46" t="e" cm="1">
         <f t="array" ref="D17">C17*rendimento_carteira</f>
-        <v>29.079105953885094</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
     </row>
     <row r="18" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A18" s="2">
+      <c r="A18" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="48" t="e">
         <f>FV($C$11,$A18*12,$C$9*-1)</f>
-        <v>10053.229679818518</v>
-      </c>
-      <c r="D18" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" s="46" t="e" cm="1">
         <f t="array" ref="D18">C18*rendimento_carteira</f>
-        <v>89.473744150384803</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75">
-      <c r="A19" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.6">
+      <c r="A19" s="57">
         <v>10</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="48" t="e">
         <f>FV($C$11,$A19*12,$C$9*-1)</f>
-        <v>29194.105503620664</v>
-      </c>
-      <c r="D19" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19" s="46" t="e" cm="1">
         <f t="array" ref="D19">C19*rendimento_carteira</f>
-        <v>259.82753898222393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75">
-      <c r="A20" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.6">
+      <c r="A20" s="57">
         <v>20</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="48" t="e">
         <f>FV($C$11,$A20*12,$C$9*-1)</f>
-        <v>135023.80801164967</v>
-      </c>
-      <c r="D20" s="20" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D20" s="46" t="e" cm="1">
         <f t="array" ref="D20">C20*rendimento_carteira</f>
-        <v>1201.711891303682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75">
-      <c r="A21" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.6">
+      <c r="A21" s="57">
         <v>30</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="51" t="e">
         <f>FV($C$11,$A21*12,$C$9*-1)</f>
-        <v>518660.35860056576</v>
-      </c>
-      <c r="D21" s="26" cm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D21" s="52" t="e" cm="1">
         <f t="array" ref="D21">C21*rendimento_carteira</f>
-        <v>4616.077191545035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19"/>
-    <row r="23" spans="1:19">
-      <c r="B23" s="30" t="s">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+    </row>
+    <row r="22" spans="1:19" ht="13.8">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="23" spans="1:19" ht="13.8">
+      <c r="B23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" s="31" t="s">
+      <c r="D23" s="16"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+    </row>
+    <row r="24" spans="1:19" ht="13.8">
+      <c r="B24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="42" t="str">
         <f>C9</f>
-        <v>120</v>
-      </c>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:19"/>
+        <v>Digite aqui o valor</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:19" ht="13.8">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+    </row>
     <row r="26" spans="1:19" ht="16.5" customHeight="1">
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="B27" s="37" t="s">
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+    </row>
+    <row r="27" spans="1:19" ht="13.8">
+      <c r="B27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B27,procv!$D:$G,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D27" s="28">
-        <f>C27*$C$24</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="B28" s="37" t="s">
+      <c r="D27" s="17" t="e">
+        <f t="shared" ref="D27:D32" si="0">C27*$C$24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+    </row>
+    <row r="28" spans="1:19" ht="13.8">
+      <c r="B28" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B28,procv!$D:$G,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D28" s="28">
-        <f>C28*$C$24</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="B29" s="37" t="s">
+      <c r="D28" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+    </row>
+    <row r="29" spans="1:19" ht="13.8">
+      <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B29,procv!$D:$G,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D29" s="28">
-        <f>C29*$C$24</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="B30" s="37" t="s">
+      <c r="D29" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+    </row>
+    <row r="30" spans="1:19" ht="13.8">
+      <c r="B30" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B30,procv!$D:$G,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D30" s="28">
-        <f>C30*$C$24</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="B31" s="37" t="s">
+      <c r="D30" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+    </row>
+    <row r="31" spans="1:19" ht="13.8">
+      <c r="B31" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B31,procv!$D:$G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="28">
-        <f>C31*$C$24</f>
-        <v>0</v>
-      </c>
+      <c r="D31" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="20">
         <f>VLOOKUP($C$23&amp;"-"&amp;B32,procv!$D:$G,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="28">
-        <f>C32*$C$24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="46">
+      <c r="D32" s="17" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+    </row>
+    <row r="33" spans="2:13" ht="18.75" customHeight="1">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="32" t="e">
         <f>SUM(D27:D32)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4"/>
-    <row r="35" spans="2:4"/>
-    <row r="36" spans="2:4" hidden="1"/>
-    <row r="37" spans="2:4" hidden="1"/>
-    <row r="38" spans="2:4" hidden="1"/>
-    <row r="39" spans="2:4" hidden="1"/>
-    <row r="40" spans="2:4" hidden="1"/>
-    <row r="41" spans="2:4" hidden="1"/>
-    <row r="42" spans="2:4" hidden="1"/>
-    <row r="43" spans="2:4" hidden="1"/>
-    <row r="44" spans="2:4" hidden="1"/>
-    <row r="45" spans="2:4" hidden="1"/>
-    <row r="46" spans="2:4" hidden="1"/>
-    <row r="47" spans="2:4" hidden="1"/>
-    <row r="48" spans="2:4" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
-    <row r="58" hidden="1"/>
-    <row r="59" hidden="1"/>
-    <row r="60" hidden="1"/>
-    <row r="61" hidden="1"/>
-    <row r="62" hidden="1"/>
-    <row r="63" hidden="1"/>
-    <row r="64" hidden="1"/>
-    <row r="65" hidden="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+    </row>
+    <row r="34" spans="2:13" s="53" customFormat="1" ht="13.8"/>
+    <row r="35" spans="2:13" s="53" customFormat="1" ht="13.8"/>
+    <row r="36" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="37" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="38" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="39" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="40" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="41" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="42" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="43" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="44" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="45" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="46" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="47" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="48" spans="2:13" ht="13.8" hidden="1"/>
+    <row r="49" ht="13.8" hidden="1"/>
+    <row r="50" ht="13.8" hidden="1"/>
+    <row r="51" ht="13.8" hidden="1"/>
+    <row r="52" ht="13.8" hidden="1"/>
+    <row r="53" ht="13.8" hidden="1"/>
+    <row r="54" ht="13.8" hidden="1"/>
+    <row r="55" ht="13.8" hidden="1"/>
+    <row r="56" ht="13.8" hidden="1"/>
+    <row r="57" ht="13.8" hidden="1"/>
+    <row r="58" ht="13.8" hidden="1"/>
+    <row r="59" ht="13.8" hidden="1"/>
+    <row r="60" ht="13.8" hidden="1"/>
+    <row r="61" ht="13.8" hidden="1"/>
+    <row r="62" ht="13.8" hidden="1"/>
+    <row r="63" ht="13.8" hidden="1"/>
+    <row r="64" ht="13.8" hidden="1"/>
+    <row r="65" ht="13.8" hidden="1"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23" xr:uid="{BEBE7ED2-01BF-4A90-AA87-C8B18039F800}">
@@ -2675,332 +3332,332 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.296875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="4:8">
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="4:8">
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="38"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="4:8">
-      <c r="D8" s="41" t="str">
+      <c r="D8" s="27" t="str">
         <f>E8&amp;"-"&amp;F8</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="28">
         <v>0.3</v>
       </c>
-      <c r="H8" s="38"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="4:8">
-      <c r="D9" s="41" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" ref="D9:D25" si="0">E9&amp;"-"&amp;F9</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="28">
         <v>0.5</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="4:8">
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="28">
         <v>0.1</v>
       </c>
-      <c r="H10" s="38"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="4:8">
-      <c r="D11" s="41" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="28">
         <v>0.1</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="28">
         <v>0</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="4:8">
-      <c r="D13" s="43" t="str">
+      <c r="D13" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="41" t="str">
+      <c r="D14" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="42">
+      <c r="G14" s="28">
         <v>0.32</v>
       </c>
-      <c r="H14" s="38"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="4:8">
-      <c r="D15" s="41" t="str">
+      <c r="D15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="28">
         <v>0.35</v>
       </c>
-      <c r="H15" s="38"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="42">
+      <c r="G16" s="28">
         <v>0.08</v>
       </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="41" t="str">
+      <c r="D17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="41" t="s">
+      <c r="F17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="28">
         <v>0.05</v>
       </c>
-      <c r="H17" s="38"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="42">
+      <c r="G18" s="28">
         <v>0.1</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="4:8">
-      <c r="D19" s="43" t="str">
+      <c r="D19" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="31">
         <v>0.1</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="41" t="str">
+      <c r="D20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="42">
+      <c r="G20" s="28">
         <v>0.5</v>
       </c>
-      <c r="H20" s="38"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="41" t="str">
+      <c r="D21" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="28">
         <v>0.1</v>
       </c>
-      <c r="H21" s="38"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="41" t="str">
+      <c r="D22" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="28">
         <v>0.05</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="4:8">
-      <c r="D23" s="41" t="str">
+      <c r="D23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="28">
         <v>0.05</v>
       </c>
-      <c r="H23" s="38"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="41" t="str">
+      <c r="D24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="42">
+      <c r="G24" s="28">
         <v>0.2</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="4:8">
-      <c r="D25" s="41" t="str">
+      <c r="D25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="28">
         <v>0.1</v>
       </c>
-      <c r="H25" s="38"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="4:8">
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hZPU1STyN/TOSg22Vg3WZPVgX0kO4gZww4fwK5TaOAVXCuqX6TNqWgWcPyoJkjPtTErBt+XDfLgwQrVCcPSKoQ==" saltValue="f2PtBu/1I5e625L9Q3mChQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
